--- a/SC0_refereestats.xlsx
+++ b/SC0_refereestats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34E2BC5-63C0-499C-A317-FB3A31E4F4A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50329A0-2FE5-47FE-890B-A0A5F3A189BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,14 +520,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
@@ -610,7 +610,7 @@
         <v>42.3</v>
       </c>
       <c r="L2">
-        <v>27.4</v>
+        <v>34.700000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>29.05263157894737</v>
       </c>
       <c r="L3">
-        <v>16.526315789473685</v>
+        <v>32.421052631578945</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>44.157894736842103</v>
       </c>
       <c r="L4">
-        <v>22.684210526315791</v>
+        <v>34.526315789473685</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>36.888888888888886</v>
       </c>
       <c r="L5">
-        <v>26.666666666666668</v>
+        <v>33.444444444444443</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>45.111111111111114</v>
       </c>
       <c r="L6">
-        <v>31.277777777777779</v>
+        <v>53.722222222222221</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -800,7 +800,7 @@
         <v>45</v>
       </c>
       <c r="L7">
-        <v>22.666666666666668</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -838,7 +838,7 @@
         <v>35.3125</v>
       </c>
       <c r="L8">
-        <v>27.75</v>
+        <v>35.875</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
         <v>45.666666666666664</v>
       </c>
       <c r="L9">
-        <v>15.866666666666667</v>
+        <v>40.533333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
         <v>47.909090909090907</v>
       </c>
       <c r="L11">
-        <v>24.818181818181817</v>
+        <v>34.363636363636367</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -990,7 +990,7 @@
         <v>46.3</v>
       </c>
       <c r="L12">
-        <v>38.799999999999997</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
         <v>41.7</v>
       </c>
       <c r="L13">
-        <v>20.6</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
         <v>55.9</v>
       </c>
       <c r="L14">
-        <v>35.299999999999997</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
         <v>45</v>
       </c>
       <c r="L15">
-        <v>26.555555555555557</v>
+        <v>35.444444444444443</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>38.666666666666664</v>
       </c>
       <c r="L16">
-        <v>17.333333333333332</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1180,7 +1180,7 @@
         <v>31</v>
       </c>
       <c r="L17">
-        <v>12.166666666666666</v>
+        <v>32.333333333333336</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>31.8</v>
       </c>
       <c r="L18">
-        <v>23.4</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1294,7 +1294,7 @@
         <v>34.333333333333336</v>
       </c>
       <c r="L20">
-        <v>19.666666666666668</v>
+        <v>46.333333333333336</v>
       </c>
     </row>
   </sheetData>

--- a/SC0_refereestats.xlsx
+++ b/SC0_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Referee</t>
   </si>
@@ -92,6 +92,9 @@
     <t>13</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -101,12 +104,18 @@
     <t>Nick Walsh</t>
   </si>
   <si>
+    <t>Calum Scott</t>
+  </si>
+  <si>
+    <t>Lloyd Wilson</t>
+  </si>
+  <si>
+    <t>Iain Snedden</t>
+  </si>
+  <si>
     <t>Euan Anderson</t>
   </si>
   <si>
-    <t>Calum Scott</t>
-  </si>
-  <si>
     <t>Colin Steven</t>
   </si>
   <si>
@@ -116,19 +125,16 @@
     <t>Grant Irvine</t>
   </si>
   <si>
+    <t>Craig Napier</t>
+  </si>
+  <si>
     <t>John Beaton</t>
   </si>
   <si>
     <t>Matthew MacDermid</t>
   </si>
   <si>
-    <t>Lloyd Wilson</t>
-  </si>
-  <si>
     <t>Dan McFarlane</t>
-  </si>
-  <si>
-    <t>Iain Snedden</t>
   </si>
 </sst>
 </file>
@@ -226,7 +232,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>18.0</v>
@@ -270,43 +276,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" t="n">
-        <v>160.0</v>
+        <v>180.0</v>
       </c>
       <c r="E3" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="F3" t="n">
-        <v>3300.0</v>
+        <v>3400.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1650.0</v>
+        <v>1133.3333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>3700.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1850.0</v>
+        <v>1233.3333333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>16.0</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="K3" t="n">
-        <v>26.0</v>
+        <v>30.333333333333332</v>
       </c>
       <c r="L3" t="n">
-        <v>16.0</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="M3" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.404255319148936</v>
+        <v>2.8125</v>
       </c>
     </row>
     <row r="4">
@@ -314,34 +320,34 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n">
-        <v>135.0</v>
+        <v>175.0</v>
       </c>
       <c r="E4" t="n">
-        <v>67.5</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="F4" t="n">
-        <v>1450.0</v>
+        <v>1850.0</v>
       </c>
       <c r="G4" t="n">
-        <v>725.0</v>
+        <v>616.6666666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>1450.0</v>
+        <v>1750.0</v>
       </c>
       <c r="I4" t="n">
-        <v>725.0</v>
+        <v>583.3333333333334</v>
       </c>
       <c r="J4" t="n">
-        <v>27.0</v>
+        <v>35.666666666666664</v>
       </c>
       <c r="K4" t="n">
-        <v>44.0</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="L4" t="n">
         <v>27.0</v>
@@ -350,7 +356,7 @@
         <v>22.0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.0681818181818183</v>
+        <v>2.611940298507463</v>
       </c>
     </row>
     <row r="5">
@@ -358,43 +364,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D5" t="n">
-        <v>40.0</v>
+        <v>80.0</v>
       </c>
       <c r="E5" t="n">
         <v>40.0</v>
       </c>
       <c r="F5" t="n">
-        <v>300.0</v>
+        <v>600.0</v>
       </c>
       <c r="G5" t="n">
         <v>300.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="J5" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="K5" t="n">
-        <v>41.0</v>
+        <v>53.0</v>
       </c>
       <c r="L5" t="n">
-        <v>8.0</v>
+        <v>25.5</v>
       </c>
       <c r="M5" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.6666666666666667</v>
+        <v>1.951219512195122</v>
       </c>
     </row>
     <row r="6">
@@ -402,43 +408,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D6" t="n">
-        <v>50.0</v>
+        <v>170.0</v>
       </c>
       <c r="E6" t="n">
-        <v>50.0</v>
+        <v>85.0</v>
       </c>
       <c r="F6" t="n">
-        <v>600.0</v>
+        <v>3725.0</v>
       </c>
       <c r="G6" t="n">
-        <v>600.0</v>
+        <v>1862.5</v>
       </c>
       <c r="H6" t="n">
-        <v>400.0</v>
+        <v>2700.0</v>
       </c>
       <c r="I6" t="n">
-        <v>400.0</v>
+        <v>1350.0</v>
       </c>
       <c r="J6" t="n">
-        <v>8.0</v>
+        <v>61.5</v>
       </c>
       <c r="K6" t="n">
-        <v>63.0</v>
+        <v>18.0</v>
       </c>
       <c r="L6" t="n">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
       <c r="M6" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.8518518518518519</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7">
@@ -446,43 +452,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D7" t="n">
-        <v>20.0</v>
+        <v>85.0</v>
       </c>
       <c r="E7" t="n">
-        <v>20.0</v>
+        <v>42.5</v>
       </c>
       <c r="F7" t="n">
-        <v>100.0</v>
+        <v>400.0</v>
       </c>
       <c r="G7" t="n">
-        <v>100.0</v>
+        <v>200.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0</v>
+        <v>32.0</v>
       </c>
       <c r="K7" t="n">
-        <v>41.0</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="n">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
       <c r="M7" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.0</v>
+        <v>2.1794871794871793</v>
       </c>
     </row>
     <row r="8">
@@ -490,43 +496,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
       </c>
       <c r="D8" t="n">
-        <v>90.0</v>
+        <v>40.0</v>
       </c>
       <c r="E8" t="n">
-        <v>90.0</v>
+        <v>40.0</v>
       </c>
       <c r="F8" t="n">
-        <v>2000.0</v>
+        <v>300.0</v>
       </c>
       <c r="G8" t="n">
-        <v>2000.0</v>
+        <v>300.0</v>
       </c>
       <c r="H8" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.0</v>
+        <v>41.0</v>
       </c>
       <c r="L8" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="M8" t="n">
-        <v>30.0</v>
+        <v>24.0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.0</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -534,22 +540,22 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
       </c>
       <c r="D9" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="E9" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="F9" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="G9" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
@@ -558,19 +564,19 @@
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.0</v>
+        <v>21.0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.0</v>
+        <v>41.0</v>
       </c>
       <c r="L9" t="n">
-        <v>52.0</v>
+        <v>21.0</v>
       </c>
       <c r="M9" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="N9" t="n">
-        <v>1.2</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +584,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -596,25 +602,25 @@
         <v>2000.0</v>
       </c>
       <c r="H10" t="n">
-        <v>2000.0</v>
+        <v>1800.0</v>
       </c>
       <c r="I10" t="n">
-        <v>2000.0</v>
+        <v>1800.0</v>
       </c>
       <c r="J10" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="K10" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="L10" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="M10" t="n">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9130434782608696</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -622,43 +628,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
       </c>
       <c r="D11" t="n">
-        <v>75.0</v>
+        <v>30.0</v>
       </c>
       <c r="E11" t="n">
-        <v>75.0</v>
+        <v>30.0</v>
       </c>
       <c r="F11" t="n">
-        <v>1100.0</v>
+        <v>200.0</v>
       </c>
       <c r="G11" t="n">
-        <v>1100.0</v>
+        <v>200.0</v>
       </c>
       <c r="H11" t="n">
-        <v>1350.0</v>
+        <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1350.0</v>
+        <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>16.0</v>
+        <v>53.0</v>
       </c>
       <c r="K11" t="n">
-        <v>21.0</v>
+        <v>52.0</v>
       </c>
       <c r="L11" t="n">
-        <v>16.0</v>
+        <v>52.0</v>
       </c>
       <c r="M11" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="N11" t="n">
-        <v>3.125</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12">
@@ -666,43 +672,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
       </c>
       <c r="D12" t="n">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
       <c r="E12" t="n">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
       <c r="F12" t="n">
-        <v>800.0</v>
+        <v>200.0</v>
       </c>
       <c r="G12" t="n">
-        <v>800.0</v>
+        <v>200.0</v>
       </c>
       <c r="H12" t="n">
-        <v>500.0</v>
+        <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>500.0</v>
+        <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>75.0</v>
+        <v>98.0</v>
       </c>
       <c r="K12" t="n">
-        <v>19.0</v>
+        <v>69.0</v>
       </c>
       <c r="L12" t="n">
-        <v>19.0</v>
+        <v>69.0</v>
       </c>
       <c r="M12" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="N12" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13">
@@ -710,43 +716,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
       </c>
       <c r="D13" t="n">
-        <v>60.0</v>
+        <v>90.0</v>
       </c>
       <c r="E13" t="n">
-        <v>60.0</v>
+        <v>90.0</v>
       </c>
       <c r="F13" t="n">
-        <v>800.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G13" t="n">
-        <v>800.0</v>
+        <v>2000.0</v>
       </c>
       <c r="H13" t="n">
-        <v>500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I13" t="n">
-        <v>500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.0</v>
+        <v>21.0</v>
       </c>
       <c r="K13" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="L13" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="M13" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.142857142857143</v>
+        <v>3.9130434782608696</v>
       </c>
     </row>
     <row r="14">
@@ -754,43 +760,87 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
       </c>
       <c r="D14" t="n">
-        <v>35.0</v>
+        <v>75.0</v>
       </c>
       <c r="E14" t="n">
-        <v>35.0</v>
+        <v>75.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>1350.0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>1350.0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.0</v>
+        <v>16.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="L14" t="n">
-        <v>51.0</v>
+        <v>16.0</v>
       </c>
       <c r="M14" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.5217391304347827</v>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.142857142857143</v>
       </c>
     </row>
   </sheetData>

--- a/SC0_refereestats.xlsx
+++ b/SC0_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Referee</t>
   </si>
@@ -95,43 +95,67 @@
     <t>14</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>Nick Walsh</t>
+  </si>
+  <si>
+    <t>John Beaton</t>
+  </si>
+  <si>
     <t>Don Robertson</t>
   </si>
   <si>
-    <t>Nick Walsh</t>
-  </si>
-  <si>
     <t>Calum Scott</t>
   </si>
   <si>
+    <t>Chris Graham</t>
+  </si>
+  <si>
+    <t>Matthew MacDermid</t>
+  </si>
+  <si>
+    <t>Iain Snedden</t>
+  </si>
+  <si>
+    <t>Euan Anderson</t>
+  </si>
+  <si>
+    <t>Colin Steven</t>
+  </si>
+  <si>
+    <t>Grant Irvine</t>
+  </si>
+  <si>
     <t>Lloyd Wilson</t>
   </si>
   <si>
-    <t>Iain Snedden</t>
-  </si>
-  <si>
-    <t>Euan Anderson</t>
-  </si>
-  <si>
-    <t>Colin Steven</t>
-  </si>
-  <si>
-    <t>Chris Graham</t>
-  </si>
-  <si>
-    <t>Grant Irvine</t>
+    <t>Steven McLean</t>
   </si>
   <si>
     <t>Craig Napier</t>
   </si>
   <si>
-    <t>John Beaton</t>
-  </si>
-  <si>
-    <t>Matthew MacDermid</t>
+    <t>Ross Hardie</t>
+  </si>
+  <si>
+    <t>Kevin Clancy</t>
+  </si>
+  <si>
+    <t>David Dickinson</t>
   </si>
   <si>
     <t>Dan McFarlane</t>
@@ -232,7 +256,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>18.0</v>
@@ -276,43 +300,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D3" t="n">
-        <v>180.0</v>
+        <v>235.0</v>
       </c>
       <c r="E3" t="n">
-        <v>60.0</v>
+        <v>58.75</v>
       </c>
       <c r="F3" t="n">
-        <v>3400.0</v>
+        <v>2350.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1133.3333333333333</v>
+        <v>587.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3700.0</v>
+        <v>2550.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1233.3333333333333</v>
+        <v>637.5</v>
       </c>
       <c r="J3" t="n">
-        <v>20.666666666666668</v>
+        <v>45.0</v>
       </c>
       <c r="K3" t="n">
-        <v>30.333333333333332</v>
+        <v>36.0</v>
       </c>
       <c r="L3" t="n">
-        <v>20.666666666666668</v>
+        <v>27.5</v>
       </c>
       <c r="M3" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.8125</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4">
@@ -320,43 +344,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
       </c>
       <c r="D4" t="n">
-        <v>175.0</v>
+        <v>225.0</v>
       </c>
       <c r="E4" t="n">
-        <v>58.333333333333336</v>
+        <v>75.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1850.0</v>
+        <v>3150.0</v>
       </c>
       <c r="G4" t="n">
-        <v>616.6666666666666</v>
+        <v>1050.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1750.0</v>
+        <v>2950.0</v>
       </c>
       <c r="I4" t="n">
-        <v>583.3333333333334</v>
+        <v>983.3333333333334</v>
       </c>
       <c r="J4" t="n">
-        <v>35.666666666666664</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="K4" t="n">
-        <v>38.333333333333336</v>
+        <v>18.333333333333332</v>
       </c>
       <c r="L4" t="n">
-        <v>27.0</v>
+        <v>18.333333333333332</v>
       </c>
       <c r="M4" t="n">
         <v>22.0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.611940298507463</v>
+        <v>3.3088235294117645</v>
       </c>
     </row>
     <row r="5">
@@ -364,43 +388,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5" t="n">
-        <v>80.0</v>
+        <v>180.0</v>
       </c>
       <c r="E5" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="F5" t="n">
-        <v>600.0</v>
+        <v>3400.0</v>
       </c>
       <c r="G5" t="n">
-        <v>300.0</v>
+        <v>1133.3333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>600.0</v>
+        <v>3700.0</v>
       </c>
       <c r="I5" t="n">
-        <v>300.0</v>
+        <v>1233.3333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>4.0</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="K5" t="n">
-        <v>53.0</v>
+        <v>30.333333333333332</v>
       </c>
       <c r="L5" t="n">
-        <v>25.5</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="M5" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.951219512195122</v>
+        <v>2.8125</v>
       </c>
     </row>
     <row r="6">
@@ -408,43 +432,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
       </c>
       <c r="D6" t="n">
-        <v>170.0</v>
+        <v>80.0</v>
       </c>
       <c r="E6" t="n">
-        <v>85.0</v>
+        <v>40.0</v>
       </c>
       <c r="F6" t="n">
-        <v>3725.0</v>
+        <v>600.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1862.5</v>
+        <v>300.0</v>
       </c>
       <c r="H6" t="n">
-        <v>2700.0</v>
+        <v>600.0</v>
       </c>
       <c r="I6" t="n">
-        <v>1350.0</v>
+        <v>300.0</v>
       </c>
       <c r="J6" t="n">
-        <v>61.5</v>
+        <v>4.0</v>
       </c>
       <c r="K6" t="n">
-        <v>18.0</v>
+        <v>53.0</v>
       </c>
       <c r="L6" t="n">
-        <v>18.0</v>
+        <v>25.5</v>
       </c>
       <c r="M6" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>1.951219512195122</v>
       </c>
     </row>
     <row r="7">
@@ -452,43 +476,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
       </c>
       <c r="D7" t="n">
-        <v>85.0</v>
+        <v>155.0</v>
       </c>
       <c r="E7" t="n">
-        <v>42.5</v>
+        <v>77.5</v>
       </c>
       <c r="F7" t="n">
-        <v>400.0</v>
+        <v>2900.0</v>
       </c>
       <c r="G7" t="n">
-        <v>200.0</v>
+        <v>1450.0</v>
       </c>
       <c r="H7" t="n">
-        <v>600.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I7" t="n">
-        <v>300.0</v>
+        <v>1200.0</v>
       </c>
       <c r="J7" t="n">
-        <v>32.0</v>
+        <v>53.0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.5</v>
+        <v>19.0</v>
       </c>
       <c r="L7" t="n">
-        <v>31.0</v>
+        <v>19.0</v>
       </c>
       <c r="M7" t="n">
-        <v>19.0</v>
+        <v>29.0</v>
       </c>
       <c r="N7" t="n">
-        <v>2.1794871794871793</v>
+        <v>2.6724137931034484</v>
       </c>
     </row>
     <row r="8">
@@ -496,43 +520,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>40.0</v>
+        <v>160.0</v>
       </c>
       <c r="E8" t="n">
-        <v>40.0</v>
+        <v>80.0</v>
       </c>
       <c r="F8" t="n">
-        <v>300.0</v>
+        <v>2750.0</v>
       </c>
       <c r="G8" t="n">
-        <v>300.0</v>
+        <v>1375.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>2550.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0</v>
+        <v>1275.0</v>
       </c>
       <c r="J8" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="K8" t="n">
-        <v>41.0</v>
+        <v>21.5</v>
       </c>
       <c r="L8" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="M8" t="n">
         <v>24.0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.6666666666666667</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="9">
@@ -540,43 +564,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>20.0</v>
+        <v>85.0</v>
       </c>
       <c r="E9" t="n">
-        <v>20.0</v>
+        <v>42.5</v>
       </c>
       <c r="F9" t="n">
-        <v>100.0</v>
+        <v>400.0</v>
       </c>
       <c r="G9" t="n">
-        <v>100.0</v>
+        <v>200.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="J9" t="n">
-        <v>21.0</v>
+        <v>32.0</v>
       </c>
       <c r="K9" t="n">
-        <v>41.0</v>
+        <v>5.5</v>
       </c>
       <c r="L9" t="n">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
       <c r="M9" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="N9" t="n">
-        <v>1.0</v>
+        <v>2.1794871794871793</v>
       </c>
     </row>
     <row r="10">
@@ -584,43 +608,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D10" t="n">
-        <v>90.0</v>
+        <v>60.0</v>
       </c>
       <c r="E10" t="n">
-        <v>90.0</v>
+        <v>30.0</v>
       </c>
       <c r="F10" t="n">
-        <v>2000.0</v>
+        <v>300.0</v>
       </c>
       <c r="G10" t="n">
-        <v>2000.0</v>
+        <v>150.0</v>
       </c>
       <c r="H10" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
       <c r="J10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M10" t="n">
         <v>23.0</v>
       </c>
-      <c r="K10" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>30.0</v>
-      </c>
       <c r="N10" t="n">
-        <v>3.0</v>
+        <v>1.2765957446808511</v>
       </c>
     </row>
     <row r="11">
@@ -628,43 +652,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D11" t="n">
-        <v>30.0</v>
+        <v>70.0</v>
       </c>
       <c r="E11" t="n">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="F11" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="G11" t="n">
-        <v>200.0</v>
+        <v>50.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="J11" t="n">
-        <v>53.0</v>
+        <v>10.5</v>
       </c>
       <c r="K11" t="n">
-        <v>52.0</v>
+        <v>32.0</v>
       </c>
       <c r="L11" t="n">
-        <v>52.0</v>
+        <v>22.0</v>
       </c>
       <c r="M11" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.2</v>
+        <v>1.5555555555555556</v>
       </c>
     </row>
     <row r="12">
@@ -672,43 +696,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D12" t="n">
-        <v>30.0</v>
+        <v>75.0</v>
       </c>
       <c r="E12" t="n">
-        <v>30.0</v>
+        <v>37.5</v>
       </c>
       <c r="F12" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="H12" t="n">
         <v>200.0</v>
       </c>
-      <c r="G12" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="J12" t="n">
-        <v>98.0</v>
+        <v>41.5</v>
       </c>
       <c r="K12" t="n">
-        <v>69.0</v>
+        <v>56.0</v>
       </c>
       <c r="L12" t="n">
-        <v>69.0</v>
+        <v>41.0</v>
       </c>
       <c r="M12" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.5</v>
+        <v>1.5957446808510638</v>
       </c>
     </row>
     <row r="13">
@@ -716,43 +740,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D13" t="n">
-        <v>90.0</v>
+        <v>170.0</v>
       </c>
       <c r="E13" t="n">
-        <v>90.0</v>
+        <v>85.0</v>
       </c>
       <c r="F13" t="n">
-        <v>2000.0</v>
+        <v>3725.0</v>
       </c>
       <c r="G13" t="n">
-        <v>2000.0</v>
+        <v>1862.5</v>
       </c>
       <c r="H13" t="n">
-        <v>2000.0</v>
+        <v>2700.0</v>
       </c>
       <c r="I13" t="n">
-        <v>2000.0</v>
+        <v>1350.0</v>
       </c>
       <c r="J13" t="n">
-        <v>21.0</v>
+        <v>61.5</v>
       </c>
       <c r="K13" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="L13" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="M13" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="N13" t="n">
-        <v>3.9130434782608696</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="14">
@@ -760,43 +784,43 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
       </c>
       <c r="D14" t="n">
-        <v>75.0</v>
+        <v>40.0</v>
       </c>
       <c r="E14" t="n">
-        <v>75.0</v>
+        <v>40.0</v>
       </c>
       <c r="F14" t="n">
-        <v>1100.0</v>
+        <v>300.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1100.0</v>
+        <v>300.0</v>
       </c>
       <c r="H14" t="n">
-        <v>1350.0</v>
+        <v>300.0</v>
       </c>
       <c r="I14" t="n">
-        <v>1350.0</v>
+        <v>300.0</v>
       </c>
       <c r="J14" t="n">
-        <v>16.0</v>
+        <v>59.0</v>
       </c>
       <c r="K14" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="L14" t="n">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
       <c r="M14" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="N14" t="n">
-        <v>3.125</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="15">
@@ -804,42 +828,218 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
       </c>
       <c r="D15" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.8181818181818181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D19" t="n">
         <v>60.0</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E19" t="n">
         <v>60.0</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F19" t="n">
         <v>800.0</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G19" t="n">
         <v>800.0</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H19" t="n">
         <v>500.0</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I19" t="n">
         <v>500.0</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J19" t="n">
         <v>58.0</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K19" t="n">
         <v>20.0</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L19" t="n">
         <v>20.0</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M19" t="n">
         <v>28.0</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N19" t="n">
         <v>2.142857142857143</v>
       </c>
     </row>

--- a/SC0_refereestats.xlsx
+++ b/SC0_refereestats.xlsx
@@ -110,13 +110,16 @@
     <t/>
   </si>
   <si>
+    <t>Don Robertson</t>
+  </si>
+  <si>
+    <t>John Beaton</t>
+  </si>
+  <si>
     <t>Nick Walsh</t>
   </si>
   <si>
-    <t>John Beaton</t>
-  </si>
-  <si>
-    <t>Don Robertson</t>
+    <t>Steven McLean</t>
   </si>
   <si>
     <t>Calum Scott</t>
@@ -128,37 +131,34 @@
     <t>Matthew MacDermid</t>
   </si>
   <si>
+    <t>Euan Anderson</t>
+  </si>
+  <si>
+    <t>Colin Steven</t>
+  </si>
+  <si>
+    <t>Grant Irvine</t>
+  </si>
+  <si>
+    <t>Lloyd Wilson</t>
+  </si>
+  <si>
+    <t>Ross Hardie</t>
+  </si>
+  <si>
+    <t>Kevin Clancy</t>
+  </si>
+  <si>
     <t>Iain Snedden</t>
   </si>
   <si>
-    <t>Euan Anderson</t>
-  </si>
-  <si>
-    <t>Colin Steven</t>
-  </si>
-  <si>
-    <t>Grant Irvine</t>
-  </si>
-  <si>
-    <t>Lloyd Wilson</t>
-  </si>
-  <si>
-    <t>Steven McLean</t>
+    <t>David Dickinson</t>
+  </si>
+  <si>
+    <t>Dan McFarlane</t>
   </si>
   <si>
     <t>Craig Napier</t>
-  </si>
-  <si>
-    <t>Ross Hardie</t>
-  </si>
-  <si>
-    <t>Kevin Clancy</t>
-  </si>
-  <si>
-    <t>David Dickinson</t>
-  </si>
-  <si>
-    <t>Dan McFarlane</t>
   </si>
 </sst>
 </file>
@@ -303,40 +303,40 @@
         <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" t="n">
-        <v>235.0</v>
+        <v>260.0</v>
       </c>
       <c r="E3" t="n">
-        <v>58.75</v>
+        <v>52.0</v>
       </c>
       <c r="F3" t="n">
-        <v>2350.0</v>
+        <v>4200.0</v>
       </c>
       <c r="G3" t="n">
-        <v>587.5</v>
+        <v>840.0</v>
       </c>
       <c r="H3" t="n">
-        <v>2550.0</v>
+        <v>4500.0</v>
       </c>
       <c r="I3" t="n">
-        <v>637.5</v>
+        <v>900.0</v>
       </c>
       <c r="J3" t="n">
-        <v>45.0</v>
+        <v>26.8</v>
       </c>
       <c r="K3" t="n">
-        <v>36.0</v>
+        <v>37.8</v>
       </c>
       <c r="L3" t="n">
-        <v>27.5</v>
+        <v>20.0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.5</v>
+        <v>2.4074074074074074</v>
       </c>
     </row>
     <row r="4">
@@ -347,40 +347,40 @@
         <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" t="n">
-        <v>225.0</v>
+        <v>305.0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.0</v>
+        <v>76.25</v>
       </c>
       <c r="F4" t="n">
-        <v>3150.0</v>
+        <v>4650.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1050.0</v>
+        <v>1162.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2950.0</v>
+        <v>4150.0</v>
       </c>
       <c r="I4" t="n">
-        <v>983.3333333333334</v>
+        <v>1037.5</v>
       </c>
       <c r="J4" t="n">
-        <v>68.33333333333333</v>
+        <v>58.25</v>
       </c>
       <c r="K4" t="n">
-        <v>18.333333333333332</v>
+        <v>19.5</v>
       </c>
       <c r="L4" t="n">
-        <v>18.333333333333332</v>
+        <v>19.5</v>
       </c>
       <c r="M4" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.3088235294117645</v>
+        <v>3.24468085106383</v>
       </c>
     </row>
     <row r="5">
@@ -391,40 +391,40 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" t="n">
-        <v>180.0</v>
+        <v>235.0</v>
       </c>
       <c r="E5" t="n">
-        <v>60.0</v>
+        <v>58.75</v>
       </c>
       <c r="F5" t="n">
-        <v>3400.0</v>
+        <v>2350.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1133.3333333333333</v>
+        <v>587.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3700.0</v>
+        <v>2550.0</v>
       </c>
       <c r="I5" t="n">
-        <v>1233.3333333333333</v>
+        <v>637.5</v>
       </c>
       <c r="J5" t="n">
-        <v>20.666666666666668</v>
+        <v>45.0</v>
       </c>
       <c r="K5" t="n">
-        <v>30.333333333333332</v>
+        <v>36.0</v>
       </c>
       <c r="L5" t="n">
-        <v>20.666666666666668</v>
+        <v>27.5</v>
       </c>
       <c r="M5" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.8125</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6">
@@ -435,40 +435,40 @@
         <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D6" t="n">
-        <v>80.0</v>
+        <v>110.0</v>
       </c>
       <c r="E6" t="n">
-        <v>40.0</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="F6" t="n">
-        <v>600.0</v>
+        <v>800.0</v>
       </c>
       <c r="G6" t="n">
-        <v>300.0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>600.0</v>
       </c>
       <c r="I6" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.0</v>
+        <v>37.666666666666664</v>
       </c>
       <c r="K6" t="n">
-        <v>53.0</v>
+        <v>42.666666666666664</v>
       </c>
       <c r="L6" t="n">
-        <v>25.5</v>
+        <v>27.0</v>
       </c>
       <c r="M6" t="n">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.951219512195122</v>
+        <v>1.4666666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -479,40 +479,40 @@
         <v>36</v>
       </c>
       <c r="C7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>333.3333333333333</v>
+      </c>
+      <c r="H7" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="K7" t="n">
+        <v>52.666666666666664</v>
+      </c>
+      <c r="L7" t="n">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="M7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="N7" t="n">
         <v>2.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>155.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2900.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1450.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2400.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1200.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.6724137931034484</v>
       </c>
     </row>
     <row r="8">
@@ -523,40 +523,40 @@
         <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D8" t="n">
-        <v>160.0</v>
+        <v>215.0</v>
       </c>
       <c r="E8" t="n">
-        <v>80.0</v>
+        <v>71.66666666666667</v>
       </c>
       <c r="F8" t="n">
-        <v>2750.0</v>
+        <v>3700.0</v>
       </c>
       <c r="G8" t="n">
-        <v>1375.0</v>
+        <v>1233.3333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>2550.0</v>
+        <v>3300.0</v>
       </c>
       <c r="I8" t="n">
-        <v>1275.0</v>
+        <v>1100.0</v>
       </c>
       <c r="J8" t="n">
-        <v>16.0</v>
+        <v>50.0</v>
       </c>
       <c r="K8" t="n">
-        <v>21.5</v>
+        <v>26.333333333333332</v>
       </c>
       <c r="L8" t="n">
-        <v>16.0</v>
+        <v>26.333333333333332</v>
       </c>
       <c r="M8" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3333333333333335</v>
+        <v>2.5903614457831323</v>
       </c>
     </row>
     <row r="9">
@@ -567,40 +567,40 @@
         <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D9" t="n">
-        <v>85.0</v>
+        <v>215.0</v>
       </c>
       <c r="E9" t="n">
-        <v>42.5</v>
+        <v>71.66666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>400.0</v>
+        <v>3200.0</v>
       </c>
       <c r="G9" t="n">
-        <v>200.0</v>
+        <v>1066.6666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>600.0</v>
+        <v>2550.0</v>
       </c>
       <c r="I9" t="n">
-        <v>300.0</v>
+        <v>850.0</v>
       </c>
       <c r="J9" t="n">
+        <v>34.666666666666664</v>
+      </c>
+      <c r="K9" t="n">
         <v>32.0</v>
       </c>
-      <c r="K9" t="n">
-        <v>5.5</v>
-      </c>
       <c r="L9" t="n">
-        <v>31.0</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="M9" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.1794871794871793</v>
+        <v>3.161764705882353</v>
       </c>
     </row>
     <row r="10">
@@ -611,19 +611,19 @@
         <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D10" t="n">
-        <v>60.0</v>
+        <v>100.0</v>
       </c>
       <c r="E10" t="n">
-        <v>30.0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="F10" t="n">
-        <v>300.0</v>
+        <v>600.0</v>
       </c>
       <c r="G10" t="n">
-        <v>150.0</v>
+        <v>200.0</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
@@ -632,19 +632,19 @@
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.0</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="K10" t="n">
-        <v>56.0</v>
+        <v>54.666666666666664</v>
       </c>
       <c r="L10" t="n">
-        <v>39.5</v>
+        <v>43.666666666666664</v>
       </c>
       <c r="M10" t="n">
         <v>23.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.2765957446808511</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="11">
@@ -655,40 +655,40 @@
         <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D11" t="n">
-        <v>70.0</v>
+        <v>115.0</v>
       </c>
       <c r="E11" t="n">
-        <v>35.0</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="F11" t="n">
-        <v>100.0</v>
+        <v>600.0</v>
       </c>
       <c r="G11" t="n">
-        <v>50.0</v>
+        <v>200.0</v>
       </c>
       <c r="H11" t="n">
-        <v>600.0</v>
+        <v>800.0</v>
       </c>
       <c r="I11" t="n">
-        <v>300.0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>10.5</v>
+        <v>32.333333333333336</v>
       </c>
       <c r="K11" t="n">
-        <v>32.0</v>
+        <v>36.333333333333336</v>
       </c>
       <c r="L11" t="n">
-        <v>22.0</v>
+        <v>29.666666666666668</v>
       </c>
       <c r="M11" t="n">
         <v>22.0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.5555555555555556</v>
+        <v>1.7164179104477613</v>
       </c>
     </row>
     <row r="12">
@@ -699,40 +699,40 @@
         <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>75.0</v>
+        <v>95.0</v>
       </c>
       <c r="E12" t="n">
-        <v>37.5</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="F12" t="n">
-        <v>550.0</v>
+        <v>650.0</v>
       </c>
       <c r="G12" t="n">
-        <v>275.0</v>
+        <v>216.66666666666666</v>
       </c>
       <c r="H12" t="n">
         <v>200.0</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="J12" t="n">
-        <v>41.5</v>
+        <v>39.0</v>
       </c>
       <c r="K12" t="n">
-        <v>56.0</v>
+        <v>51.333333333333336</v>
       </c>
       <c r="L12" t="n">
-        <v>41.0</v>
+        <v>38.666666666666664</v>
       </c>
       <c r="M12" t="n">
         <v>23.0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.5957446808510638</v>
+        <v>1.3571428571428572</v>
       </c>
     </row>
     <row r="13">
@@ -743,40 +743,40 @@
         <v>42</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D13" t="n">
-        <v>170.0</v>
+        <v>240.0</v>
       </c>
       <c r="E13" t="n">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
       <c r="F13" t="n">
-        <v>3725.0</v>
+        <v>4925.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1862.5</v>
+        <v>1641.6666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>2700.0</v>
+        <v>3900.0</v>
       </c>
       <c r="I13" t="n">
-        <v>1350.0</v>
+        <v>1300.0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.5</v>
+        <v>47.666666666666664</v>
       </c>
       <c r="K13" t="n">
-        <v>18.0</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="L13" t="n">
-        <v>18.0</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="M13" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="14">
@@ -787,40 +787,40 @@
         <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D14" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="E14" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="F14" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="G14" t="n">
-        <v>300.0</v>
+        <v>100.0</v>
       </c>
       <c r="H14" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="I14" t="n">
-        <v>300.0</v>
+        <v>100.0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.0</v>
+        <v>27.0</v>
       </c>
       <c r="K14" t="n">
-        <v>27.0</v>
+        <v>44.0</v>
       </c>
       <c r="L14" t="n">
-        <v>27.0</v>
+        <v>44.0</v>
       </c>
       <c r="M14" t="n">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.6</v>
+        <v>2.0689655172413794</v>
       </c>
     </row>
     <row r="15">
@@ -831,40 +831,40 @@
         <v>44</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D15" t="n">
-        <v>30.0</v>
+        <v>90.0</v>
       </c>
       <c r="E15" t="n">
-        <v>30.0</v>
+        <v>45.0</v>
       </c>
       <c r="F15" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="I15" t="n">
         <v>200.0</v>
       </c>
-      <c r="G15" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J15" t="n">
-        <v>98.0</v>
+        <v>45.5</v>
       </c>
       <c r="K15" t="n">
-        <v>69.0</v>
+        <v>52.5</v>
       </c>
       <c r="L15" t="n">
-        <v>69.0</v>
+        <v>45.5</v>
       </c>
       <c r="M15" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.5</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="16">
@@ -875,40 +875,40 @@
         <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D16" t="n">
-        <v>30.0</v>
+        <v>85.0</v>
       </c>
       <c r="E16" t="n">
-        <v>30.0</v>
+        <v>42.5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="H16" t="n">
-        <v>200.0</v>
+        <v>600.0</v>
       </c>
       <c r="I16" t="n">
-        <v>200.0</v>
+        <v>300.0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="K16" t="n">
-        <v>37.0</v>
+        <v>5.5</v>
       </c>
       <c r="L16" t="n">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
       <c r="M16" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.0</v>
+        <v>2.1794871794871793</v>
       </c>
     </row>
     <row r="17">
@@ -919,40 +919,40 @@
         <v>46</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D17" t="n">
-        <v>40.0</v>
+        <v>75.0</v>
       </c>
       <c r="E17" t="n">
-        <v>40.0</v>
+        <v>37.5</v>
       </c>
       <c r="F17" t="n">
-        <v>300.0</v>
+        <v>800.0</v>
       </c>
       <c r="G17" t="n">
-        <v>300.0</v>
+        <v>400.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>350.0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>175.0</v>
       </c>
       <c r="J17" t="n">
-        <v>50.0</v>
+        <v>61.0</v>
       </c>
       <c r="K17" t="n">
-        <v>50.0</v>
+        <v>36.0</v>
       </c>
       <c r="L17" t="n">
-        <v>50.0</v>
+        <v>36.0</v>
       </c>
       <c r="M17" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.8181818181818181</v>
+        <v>1.3888888888888888</v>
       </c>
     </row>
     <row r="18">
@@ -963,40 +963,40 @@
         <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D18" t="n">
-        <v>20.0</v>
+        <v>90.0</v>
       </c>
       <c r="E18" t="n">
-        <v>20.0</v>
+        <v>45.0</v>
       </c>
       <c r="F18" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="G18" t="n">
-        <v>100.0</v>
+        <v>500.0</v>
       </c>
       <c r="H18" t="n">
-        <v>350.0</v>
+        <v>500.0</v>
       </c>
       <c r="I18" t="n">
-        <v>350.0</v>
+        <v>250.0</v>
       </c>
       <c r="J18" t="n">
-        <v>63.0</v>
+        <v>59.0</v>
       </c>
       <c r="K18" t="n">
-        <v>22.0</v>
+        <v>49.0</v>
       </c>
       <c r="L18" t="n">
-        <v>22.0</v>
+        <v>40.0</v>
       </c>
       <c r="M18" t="n">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5882352941176471</v>
+        <v>1.7307692307692308</v>
       </c>
     </row>
     <row r="19">
@@ -1010,37 +1010,37 @@
         <v>1.0</v>
       </c>
       <c r="D19" t="n">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
       <c r="E19" t="n">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
       <c r="F19" t="n">
-        <v>800.0</v>
+        <v>200.0</v>
       </c>
       <c r="G19" t="n">
-        <v>800.0</v>
+        <v>200.0</v>
       </c>
       <c r="H19" t="n">
-        <v>500.0</v>
+        <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>500.0</v>
+        <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.0</v>
+        <v>98.0</v>
       </c>
       <c r="K19" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="M19" t="n">
         <v>20.0</v>
       </c>
-      <c r="L19" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>28.0</v>
-      </c>
       <c r="N19" t="n">
-        <v>2.142857142857143</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/SC0_refereestats.xlsx
+++ b/SC0_refereestats.xlsx
@@ -113,12 +113,12 @@
     <t>Don Robertson</t>
   </si>
   <si>
+    <t>Nick Walsh</t>
+  </si>
+  <si>
     <t>John Beaton</t>
   </si>
   <si>
-    <t>Nick Walsh</t>
-  </si>
-  <si>
     <t>Steven McLean</t>
   </si>
   <si>
@@ -128,9 +128,18 @@
     <t>Chris Graham</t>
   </si>
   <si>
+    <t>Ross Hardie</t>
+  </si>
+  <si>
     <t>Matthew MacDermid</t>
   </si>
   <si>
+    <t>Kevin Clancy</t>
+  </si>
+  <si>
+    <t>Iain Snedden</t>
+  </si>
+  <si>
     <t>Euan Anderson</t>
   </si>
   <si>
@@ -141,15 +150,6 @@
   </si>
   <si>
     <t>Lloyd Wilson</t>
-  </si>
-  <si>
-    <t>Ross Hardie</t>
-  </si>
-  <si>
-    <t>Kevin Clancy</t>
-  </si>
-  <si>
-    <t>Iain Snedden</t>
   </si>
   <si>
     <t>David Dickinson</t>
@@ -303,40 +303,40 @@
         <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D3" t="n">
-        <v>260.0</v>
+        <v>395.0</v>
       </c>
       <c r="E3" t="n">
-        <v>52.0</v>
+        <v>49.375</v>
       </c>
       <c r="F3" t="n">
-        <v>4200.0</v>
+        <v>5500.0</v>
       </c>
       <c r="G3" t="n">
-        <v>840.0</v>
+        <v>687.5</v>
       </c>
       <c r="H3" t="n">
-        <v>4500.0</v>
+        <v>4950.0</v>
       </c>
       <c r="I3" t="n">
-        <v>900.0</v>
+        <v>618.75</v>
       </c>
       <c r="J3" t="n">
-        <v>26.8</v>
+        <v>42.625</v>
       </c>
       <c r="K3" t="n">
-        <v>37.8</v>
+        <v>36.25</v>
       </c>
       <c r="L3" t="n">
+        <v>23.875</v>
+      </c>
+      <c r="M3" t="n">
         <v>20.0</v>
       </c>
-      <c r="M3" t="n">
-        <v>21.0</v>
-      </c>
       <c r="N3" t="n">
-        <v>2.4074074074074074</v>
+        <v>2.3795180722891565</v>
       </c>
     </row>
     <row r="4">
@@ -347,40 +347,40 @@
         <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D4" t="n">
-        <v>305.0</v>
+        <v>430.0</v>
       </c>
       <c r="E4" t="n">
-        <v>76.25</v>
+        <v>53.75</v>
       </c>
       <c r="F4" t="n">
-        <v>4650.0</v>
+        <v>4900.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1162.5</v>
+        <v>612.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4150.0</v>
+        <v>4800.0</v>
       </c>
       <c r="I4" t="n">
-        <v>1037.5</v>
+        <v>600.0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.25</v>
+        <v>30.0</v>
       </c>
       <c r="K4" t="n">
-        <v>19.5</v>
+        <v>42.75</v>
       </c>
       <c r="L4" t="n">
-        <v>19.5</v>
+        <v>22.125</v>
       </c>
       <c r="M4" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.24468085106383</v>
+        <v>2.4431818181818183</v>
       </c>
     </row>
     <row r="5">
@@ -391,40 +391,40 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D5" t="n">
-        <v>235.0</v>
+        <v>445.0</v>
       </c>
       <c r="E5" t="n">
-        <v>58.75</v>
+        <v>63.57142857142857</v>
       </c>
       <c r="F5" t="n">
-        <v>2350.0</v>
+        <v>6650.0</v>
       </c>
       <c r="G5" t="n">
-        <v>587.5</v>
+        <v>950.0</v>
       </c>
       <c r="H5" t="n">
-        <v>2550.0</v>
+        <v>6050.0</v>
       </c>
       <c r="I5" t="n">
-        <v>637.5</v>
+        <v>864.2857142857143</v>
       </c>
       <c r="J5" t="n">
-        <v>45.0</v>
+        <v>50.714285714285715</v>
       </c>
       <c r="K5" t="n">
-        <v>36.0</v>
+        <v>31.857142857142858</v>
       </c>
       <c r="L5" t="n">
-        <v>27.5</v>
+        <v>25.142857142857142</v>
       </c>
       <c r="M5" t="n">
         <v>23.0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.5</v>
+        <v>2.696969696969697</v>
       </c>
     </row>
     <row r="6">
@@ -435,40 +435,40 @@
         <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D6" t="n">
-        <v>110.0</v>
+        <v>210.0</v>
       </c>
       <c r="E6" t="n">
-        <v>36.666666666666664</v>
+        <v>35.0</v>
       </c>
       <c r="F6" t="n">
-        <v>800.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G6" t="n">
         <v>266.6666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>600.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I6" t="n">
-        <v>200.0</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="J6" t="n">
-        <v>37.666666666666664</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="K6" t="n">
-        <v>42.666666666666664</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="L6" t="n">
-        <v>27.0</v>
+        <v>36.0</v>
       </c>
       <c r="M6" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.4666666666666666</v>
+        <v>1.5671641791044777</v>
       </c>
     </row>
     <row r="7">
@@ -479,40 +479,40 @@
         <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D7" t="n">
-        <v>120.0</v>
+        <v>170.0</v>
       </c>
       <c r="E7" t="n">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1000.0</v>
+        <v>1300.0</v>
       </c>
       <c r="G7" t="n">
-        <v>333.3333333333333</v>
+        <v>260.0</v>
       </c>
       <c r="H7" t="n">
-        <v>900.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I7" t="n">
-        <v>300.0</v>
+        <v>260.0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3333333333333335</v>
+        <v>10.8</v>
       </c>
       <c r="K7" t="n">
-        <v>52.666666666666664</v>
+        <v>50.4</v>
       </c>
       <c r="L7" t="n">
-        <v>17.666666666666668</v>
+        <v>24.0</v>
       </c>
       <c r="M7" t="n">
         <v>20.0</v>
       </c>
       <c r="N7" t="n">
-        <v>2.0</v>
+        <v>1.683168316831683</v>
       </c>
     </row>
     <row r="8">
@@ -523,40 +523,40 @@
         <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D8" t="n">
-        <v>215.0</v>
+        <v>265.0</v>
       </c>
       <c r="E8" t="n">
-        <v>71.66666666666667</v>
+        <v>53.0</v>
       </c>
       <c r="F8" t="n">
-        <v>3700.0</v>
+        <v>4000.0</v>
       </c>
       <c r="G8" t="n">
-        <v>1233.3333333333333</v>
+        <v>800.0</v>
       </c>
       <c r="H8" t="n">
-        <v>3300.0</v>
+        <v>3500.0</v>
       </c>
       <c r="I8" t="n">
-        <v>1100.0</v>
+        <v>700.0</v>
       </c>
       <c r="J8" t="n">
-        <v>50.0</v>
+        <v>56.6</v>
       </c>
       <c r="K8" t="n">
-        <v>26.333333333333332</v>
+        <v>43.8</v>
       </c>
       <c r="L8" t="n">
-        <v>26.333333333333332</v>
+        <v>35.8</v>
       </c>
       <c r="M8" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="N8" t="n">
-        <v>2.5903614457831323</v>
+        <v>2.054263565891473</v>
       </c>
     </row>
     <row r="9">
@@ -567,40 +567,40 @@
         <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D9" t="n">
-        <v>215.0</v>
+        <v>200.0</v>
       </c>
       <c r="E9" t="n">
-        <v>71.66666666666667</v>
+        <v>40.0</v>
       </c>
       <c r="F9" t="n">
-        <v>3200.0</v>
+        <v>2600.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1066.6666666666667</v>
+        <v>520.0</v>
       </c>
       <c r="H9" t="n">
-        <v>2550.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I9" t="n">
-        <v>850.0</v>
+        <v>480.0</v>
       </c>
       <c r="J9" t="n">
-        <v>34.666666666666664</v>
+        <v>39.6</v>
       </c>
       <c r="K9" t="n">
-        <v>32.0</v>
+        <v>24.8</v>
       </c>
       <c r="L9" t="n">
-        <v>28.333333333333332</v>
+        <v>36.0</v>
       </c>
       <c r="M9" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.161764705882353</v>
+        <v>1.9607843137254901</v>
       </c>
     </row>
     <row r="10">
@@ -611,40 +611,40 @@
         <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.0</v>
+        <v>330.0</v>
       </c>
       <c r="E10" t="n">
-        <v>33.333333333333336</v>
+        <v>66.0</v>
       </c>
       <c r="F10" t="n">
-        <v>600.0</v>
+        <v>4700.0</v>
       </c>
       <c r="G10" t="n">
-        <v>200.0</v>
+        <v>940.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>3100.0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0</v>
+        <v>620.0</v>
       </c>
       <c r="J10" t="n">
-        <v>31.666666666666668</v>
+        <v>38.2</v>
       </c>
       <c r="K10" t="n">
-        <v>54.666666666666664</v>
+        <v>42.0</v>
       </c>
       <c r="L10" t="n">
-        <v>43.666666666666664</v>
+        <v>31.0</v>
       </c>
       <c r="M10" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.4285714285714286</v>
+        <v>3.235294117647059</v>
       </c>
     </row>
     <row r="11">
@@ -655,40 +655,40 @@
         <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D11" t="n">
-        <v>115.0</v>
+        <v>170.0</v>
       </c>
       <c r="E11" t="n">
-        <v>38.333333333333336</v>
+        <v>42.5</v>
       </c>
       <c r="F11" t="n">
-        <v>600.0</v>
+        <v>1500.0</v>
       </c>
       <c r="G11" t="n">
-        <v>200.0</v>
+        <v>375.0</v>
       </c>
       <c r="H11" t="n">
-        <v>800.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I11" t="n">
-        <v>266.6666666666667</v>
+        <v>350.0</v>
       </c>
       <c r="J11" t="n">
-        <v>32.333333333333336</v>
+        <v>43.75</v>
       </c>
       <c r="K11" t="n">
-        <v>36.333333333333336</v>
+        <v>60.5</v>
       </c>
       <c r="L11" t="n">
-        <v>29.666666666666668</v>
+        <v>43.75</v>
       </c>
       <c r="M11" t="n">
         <v>22.0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.7164179104477613</v>
+        <v>1.8888888888888888</v>
       </c>
     </row>
     <row r="12">
@@ -699,40 +699,40 @@
         <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D12" t="n">
-        <v>95.0</v>
+        <v>180.0</v>
       </c>
       <c r="E12" t="n">
-        <v>31.666666666666668</v>
+        <v>45.0</v>
       </c>
       <c r="F12" t="n">
-        <v>650.0</v>
+        <v>1500.0</v>
       </c>
       <c r="G12" t="n">
-        <v>216.66666666666666</v>
+        <v>375.0</v>
       </c>
       <c r="H12" t="n">
-        <v>200.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I12" t="n">
-        <v>66.66666666666667</v>
+        <v>325.0</v>
       </c>
       <c r="J12" t="n">
-        <v>39.0</v>
+        <v>35.25</v>
       </c>
       <c r="K12" t="n">
-        <v>51.333333333333336</v>
+        <v>13.25</v>
       </c>
       <c r="L12" t="n">
-        <v>38.666666666666664</v>
+        <v>26.0</v>
       </c>
       <c r="M12" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.3571428571428572</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="13">
@@ -743,40 +743,40 @@
         <v>42</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D13" t="n">
-        <v>240.0</v>
+        <v>140.0</v>
       </c>
       <c r="E13" t="n">
-        <v>80.0</v>
+        <v>35.0</v>
       </c>
       <c r="F13" t="n">
-        <v>4925.0</v>
+        <v>1000.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1641.6666666666667</v>
+        <v>250.0</v>
       </c>
       <c r="H13" t="n">
-        <v>3900.0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>1300.0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.666666666666664</v>
+        <v>43.0</v>
       </c>
       <c r="K13" t="n">
-        <v>25.333333333333332</v>
+        <v>56.0</v>
       </c>
       <c r="L13" t="n">
-        <v>18.666666666666668</v>
+        <v>47.75</v>
       </c>
       <c r="M13" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="N13" t="n">
-        <v>3.287671232876712</v>
+        <v>1.4736842105263157</v>
       </c>
     </row>
     <row r="14">
@@ -787,40 +787,40 @@
         <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D14" t="n">
-        <v>60.0</v>
+        <v>165.0</v>
       </c>
       <c r="E14" t="n">
-        <v>30.0</v>
+        <v>41.25</v>
       </c>
       <c r="F14" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="I14" t="n">
         <v>200.0</v>
       </c>
-      <c r="G14" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>100.0</v>
-      </c>
       <c r="J14" t="n">
-        <v>27.0</v>
+        <v>39.75</v>
       </c>
       <c r="K14" t="n">
-        <v>44.0</v>
+        <v>48.25</v>
       </c>
       <c r="L14" t="n">
-        <v>44.0</v>
+        <v>37.75</v>
       </c>
       <c r="M14" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.0689655172413794</v>
+        <v>1.8131868131868132</v>
       </c>
     </row>
     <row r="15">
@@ -831,40 +831,40 @@
         <v>44</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D15" t="n">
-        <v>90.0</v>
+        <v>95.0</v>
       </c>
       <c r="E15" t="n">
-        <v>45.0</v>
+        <v>23.75</v>
       </c>
       <c r="F15" t="n">
-        <v>900.0</v>
+        <v>650.0</v>
       </c>
       <c r="G15" t="n">
-        <v>450.0</v>
+        <v>162.5</v>
       </c>
       <c r="H15" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="I15" t="n">
-        <v>200.0</v>
+        <v>50.0</v>
       </c>
       <c r="J15" t="n">
-        <v>45.5</v>
+        <v>29.25</v>
       </c>
       <c r="K15" t="n">
-        <v>52.5</v>
+        <v>38.5</v>
       </c>
       <c r="L15" t="n">
-        <v>45.5</v>
+        <v>29.0</v>
       </c>
       <c r="M15" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.142857142857143</v>
+        <v>1.0106382978723405</v>
       </c>
     </row>
     <row r="16">
@@ -875,40 +875,40 @@
         <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D16" t="n">
-        <v>85.0</v>
+        <v>290.0</v>
       </c>
       <c r="E16" t="n">
-        <v>42.5</v>
+        <v>72.5</v>
       </c>
       <c r="F16" t="n">
-        <v>400.0</v>
+        <v>5325.0</v>
       </c>
       <c r="G16" t="n">
-        <v>200.0</v>
+        <v>1331.25</v>
       </c>
       <c r="H16" t="n">
-        <v>600.0</v>
+        <v>4300.0</v>
       </c>
       <c r="I16" t="n">
-        <v>300.0</v>
+        <v>1075.0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.0</v>
+        <v>45.5</v>
       </c>
       <c r="K16" t="n">
-        <v>5.5</v>
+        <v>35.75</v>
       </c>
       <c r="L16" t="n">
-        <v>31.0</v>
+        <v>23.75</v>
       </c>
       <c r="M16" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="N16" t="n">
-        <v>2.1794871794871793</v>
+        <v>3.258426966292135</v>
       </c>
     </row>
     <row r="17">
@@ -919,40 +919,40 @@
         <v>46</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D17" t="n">
-        <v>75.0</v>
+        <v>115.0</v>
       </c>
       <c r="E17" t="n">
-        <v>37.5</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="F17" t="n">
-        <v>800.0</v>
+        <v>1100.0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.0</v>
+        <v>366.6666666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>350.0</v>
+        <v>650.0</v>
       </c>
       <c r="I17" t="n">
-        <v>175.0</v>
+        <v>216.66666666666666</v>
       </c>
       <c r="J17" t="n">
-        <v>61.0</v>
+        <v>52.333333333333336</v>
       </c>
       <c r="K17" t="n">
-        <v>36.0</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="L17" t="n">
-        <v>36.0</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="M17" t="n">
         <v>27.0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.3888888888888888</v>
+        <v>1.4024390243902438</v>
       </c>
     </row>
     <row r="18">
@@ -963,40 +963,40 @@
         <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D18" t="n">
-        <v>90.0</v>
+        <v>175.0</v>
       </c>
       <c r="E18" t="n">
-        <v>45.0</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="F18" t="n">
-        <v>1000.0</v>
+        <v>2650.0</v>
       </c>
       <c r="G18" t="n">
-        <v>500.0</v>
+        <v>883.3333333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>500.0</v>
+        <v>1700.0</v>
       </c>
       <c r="I18" t="n">
-        <v>250.0</v>
+        <v>566.6666666666666</v>
       </c>
       <c r="J18" t="n">
-        <v>59.0</v>
+        <v>50.666666666666664</v>
       </c>
       <c r="K18" t="n">
-        <v>49.0</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="L18" t="n">
-        <v>40.0</v>
+        <v>37.333333333333336</v>
       </c>
       <c r="M18" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.7307692307692308</v>
+        <v>2.108433734939759</v>
       </c>
     </row>
     <row r="19">

--- a/SC0_refereestats.xlsx
+++ b/SC0_refereestats.xlsx
@@ -122,40 +122,40 @@
     <t>Steven McLean</t>
   </si>
   <si>
+    <t>Kevin Clancy</t>
+  </si>
+  <si>
+    <t>Matthew MacDermid</t>
+  </si>
+  <si>
+    <t>David Dickinson</t>
+  </si>
+  <si>
     <t>Calum Scott</t>
   </si>
   <si>
+    <t>Ross Hardie</t>
+  </si>
+  <si>
     <t>Chris Graham</t>
   </si>
   <si>
-    <t>Ross Hardie</t>
-  </si>
-  <si>
-    <t>Matthew MacDermid</t>
-  </si>
-  <si>
-    <t>Kevin Clancy</t>
+    <t>Colin Steven</t>
+  </si>
+  <si>
+    <t>Lloyd Wilson</t>
   </si>
   <si>
     <t>Iain Snedden</t>
   </si>
   <si>
+    <t>Grant Irvine</t>
+  </si>
+  <si>
+    <t>Dan McFarlane</t>
+  </si>
+  <si>
     <t>Euan Anderson</t>
-  </si>
-  <si>
-    <t>Colin Steven</t>
-  </si>
-  <si>
-    <t>Grant Irvine</t>
-  </si>
-  <si>
-    <t>Lloyd Wilson</t>
-  </si>
-  <si>
-    <t>David Dickinson</t>
-  </si>
-  <si>
-    <t>Dan McFarlane</t>
   </si>
   <si>
     <t>Craig Napier</t>
@@ -259,40 +259,40 @@
         <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="D2" t="n">
-        <v>785.0</v>
+        <v>735.0</v>
       </c>
       <c r="E2" t="n">
-        <v>43.611111111111114</v>
+        <v>45.9375</v>
       </c>
       <c r="F2" t="n">
-        <v>9350.0</v>
+        <v>9150.0</v>
       </c>
       <c r="G2" t="n">
-        <v>519.4444444444445</v>
+        <v>571.875</v>
       </c>
       <c r="H2" t="n">
-        <v>6900.0</v>
+        <v>6700.0</v>
       </c>
       <c r="I2" t="n">
-        <v>383.3333333333333</v>
+        <v>418.75</v>
       </c>
       <c r="J2" t="n">
-        <v>29.833333333333332</v>
+        <v>33.0625</v>
       </c>
       <c r="K2" t="n">
-        <v>39.0</v>
+        <v>33.5</v>
       </c>
       <c r="L2" t="n">
-        <v>35.333333333333336</v>
+        <v>34.875</v>
       </c>
       <c r="M2" t="n">
         <v>21.0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.9974554707379135</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3">
@@ -303,40 +303,40 @@
         <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="D3" t="n">
-        <v>395.0</v>
+        <v>595.0</v>
       </c>
       <c r="E3" t="n">
-        <v>49.375</v>
+        <v>39.666666666666664</v>
       </c>
       <c r="F3" t="n">
-        <v>5500.0</v>
+        <v>7100.0</v>
       </c>
       <c r="G3" t="n">
-        <v>687.5</v>
+        <v>473.3333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>4950.0</v>
+        <v>6350.0</v>
       </c>
       <c r="I3" t="n">
-        <v>618.75</v>
+        <v>423.3333333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>42.625</v>
+        <v>34.4</v>
       </c>
       <c r="K3" t="n">
-        <v>36.25</v>
+        <v>35.8</v>
       </c>
       <c r="L3" t="n">
-        <v>23.875</v>
+        <v>29.2</v>
       </c>
       <c r="M3" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.3795180722891565</v>
+        <v>2.0804195804195804</v>
       </c>
     </row>
     <row r="4">
@@ -347,40 +347,40 @@
         <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="D4" t="n">
-        <v>430.0</v>
+        <v>710.0</v>
       </c>
       <c r="E4" t="n">
-        <v>53.75</v>
+        <v>47.333333333333336</v>
       </c>
       <c r="F4" t="n">
-        <v>4900.0</v>
+        <v>8200.0</v>
       </c>
       <c r="G4" t="n">
-        <v>612.5</v>
+        <v>546.6666666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>4800.0</v>
+        <v>6950.0</v>
       </c>
       <c r="I4" t="n">
-        <v>600.0</v>
+        <v>463.3333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>30.0</v>
+        <v>28.533333333333335</v>
       </c>
       <c r="K4" t="n">
-        <v>42.75</v>
+        <v>42.06666666666667</v>
       </c>
       <c r="L4" t="n">
-        <v>22.125</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="M4" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.4431818181818183</v>
+        <v>2.225705329153605</v>
       </c>
     </row>
     <row r="5">
@@ -391,40 +391,40 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="D5" t="n">
-        <v>445.0</v>
+        <v>665.0</v>
       </c>
       <c r="E5" t="n">
-        <v>63.57142857142857</v>
+        <v>51.15384615384615</v>
       </c>
       <c r="F5" t="n">
-        <v>6650.0</v>
+        <v>9250.0</v>
       </c>
       <c r="G5" t="n">
-        <v>950.0</v>
+        <v>711.5384615384615</v>
       </c>
       <c r="H5" t="n">
-        <v>6050.0</v>
+        <v>8650.0</v>
       </c>
       <c r="I5" t="n">
-        <v>864.2857142857143</v>
+        <v>665.3846153846154</v>
       </c>
       <c r="J5" t="n">
-        <v>50.714285714285715</v>
+        <v>49.61538461538461</v>
       </c>
       <c r="K5" t="n">
-        <v>31.857142857142858</v>
+        <v>36.76923076923077</v>
       </c>
       <c r="L5" t="n">
-        <v>25.142857142857142</v>
+        <v>31.46153846153846</v>
       </c>
       <c r="M5" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.696969696969697</v>
+        <v>2.261904761904762</v>
       </c>
     </row>
     <row r="6">
@@ -435,40 +435,40 @@
         <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="D6" t="n">
-        <v>210.0</v>
+        <v>400.0</v>
       </c>
       <c r="E6" t="n">
-        <v>35.0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="F6" t="n">
-        <v>1600.0</v>
+        <v>3200.0</v>
       </c>
       <c r="G6" t="n">
         <v>266.6666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1000.0</v>
+        <v>2300.0</v>
       </c>
       <c r="I6" t="n">
-        <v>166.66666666666666</v>
+        <v>191.66666666666666</v>
       </c>
       <c r="J6" t="n">
-        <v>43.333333333333336</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="K6" t="n">
-        <v>58.333333333333336</v>
+        <v>46.5</v>
       </c>
       <c r="L6" t="n">
-        <v>36.0</v>
+        <v>31.583333333333332</v>
       </c>
       <c r="M6" t="n">
         <v>22.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.5671641791044777</v>
+        <v>1.5151515151515151</v>
       </c>
     </row>
     <row r="7">
@@ -479,40 +479,40 @@
         <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="D7" t="n">
-        <v>170.0</v>
+        <v>445.0</v>
       </c>
       <c r="E7" t="n">
-        <v>34.0</v>
+        <v>40.45454545454545</v>
       </c>
       <c r="F7" t="n">
-        <v>1300.0</v>
+        <v>4500.0</v>
       </c>
       <c r="G7" t="n">
-        <v>260.0</v>
+        <v>409.09090909090907</v>
       </c>
       <c r="H7" t="n">
-        <v>1300.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I7" t="n">
-        <v>260.0</v>
+        <v>272.72727272727275</v>
       </c>
       <c r="J7" t="n">
-        <v>10.8</v>
+        <v>39.0</v>
       </c>
       <c r="K7" t="n">
-        <v>50.4</v>
+        <v>50.0</v>
       </c>
       <c r="L7" t="n">
-        <v>24.0</v>
+        <v>33.54545454545455</v>
       </c>
       <c r="M7" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.683168316831683</v>
+        <v>1.9017094017094016</v>
       </c>
     </row>
     <row r="8">
@@ -523,40 +523,40 @@
         <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="D8" t="n">
-        <v>265.0</v>
+        <v>510.0</v>
       </c>
       <c r="E8" t="n">
-        <v>53.0</v>
+        <v>46.36363636363637</v>
       </c>
       <c r="F8" t="n">
+        <v>6000.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>545.4545454545455</v>
+      </c>
+      <c r="H8" t="n">
         <v>4000.0</v>
       </c>
-      <c r="G8" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3500.0</v>
-      </c>
       <c r="I8" t="n">
-        <v>700.0</v>
+        <v>363.6363636363636</v>
       </c>
       <c r="J8" t="n">
-        <v>56.6</v>
+        <v>34.72727272727273</v>
       </c>
       <c r="K8" t="n">
-        <v>43.8</v>
+        <v>38.81818181818182</v>
       </c>
       <c r="L8" t="n">
-        <v>35.8</v>
+        <v>34.27272727272727</v>
       </c>
       <c r="M8" t="n">
-        <v>25.0</v>
+        <v>17.0</v>
       </c>
       <c r="N8" t="n">
-        <v>2.054263565891473</v>
+        <v>2.6842105263157894</v>
       </c>
     </row>
     <row r="9">
@@ -567,40 +567,40 @@
         <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="D9" t="n">
-        <v>200.0</v>
+        <v>455.0</v>
       </c>
       <c r="E9" t="n">
-        <v>40.0</v>
+        <v>41.36363636363637</v>
       </c>
       <c r="F9" t="n">
-        <v>2600.0</v>
+        <v>4400.0</v>
       </c>
       <c r="G9" t="n">
-        <v>520.0</v>
+        <v>400.0</v>
       </c>
       <c r="H9" t="n">
-        <v>2400.0</v>
+        <v>3350.0</v>
       </c>
       <c r="I9" t="n">
-        <v>480.0</v>
+        <v>304.54545454545456</v>
       </c>
       <c r="J9" t="n">
-        <v>39.6</v>
+        <v>50.81818181818182</v>
       </c>
       <c r="K9" t="n">
-        <v>24.8</v>
+        <v>41.45454545454545</v>
       </c>
       <c r="L9" t="n">
-        <v>36.0</v>
+        <v>32.09090909090909</v>
       </c>
       <c r="M9" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="N9" t="n">
-        <v>1.9607843137254901</v>
+        <v>1.887966804979253</v>
       </c>
     </row>
     <row r="10">
@@ -611,40 +611,40 @@
         <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="D10" t="n">
-        <v>330.0</v>
+        <v>300.0</v>
       </c>
       <c r="E10" t="n">
-        <v>66.0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="F10" t="n">
-        <v>4700.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G10" t="n">
-        <v>940.0</v>
+        <v>177.77777777777777</v>
       </c>
       <c r="H10" t="n">
-        <v>3100.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I10" t="n">
-        <v>620.0</v>
+        <v>155.55555555555554</v>
       </c>
       <c r="J10" t="n">
-        <v>38.2</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="K10" t="n">
-        <v>42.0</v>
+        <v>49.55555555555556</v>
       </c>
       <c r="L10" t="n">
-        <v>31.0</v>
+        <v>34.888888888888886</v>
       </c>
       <c r="M10" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.235294117647059</v>
+        <v>1.7341040462427746</v>
       </c>
     </row>
     <row r="11">
@@ -655,40 +655,40 @@
         <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="D11" t="n">
-        <v>170.0</v>
+        <v>345.0</v>
       </c>
       <c r="E11" t="n">
-        <v>42.5</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="F11" t="n">
-        <v>1500.0</v>
+        <v>4900.0</v>
       </c>
       <c r="G11" t="n">
-        <v>375.0</v>
+        <v>544.4444444444445</v>
       </c>
       <c r="H11" t="n">
-        <v>1400.0</v>
+        <v>3900.0</v>
       </c>
       <c r="I11" t="n">
-        <v>350.0</v>
+        <v>433.3333333333333</v>
       </c>
       <c r="J11" t="n">
-        <v>43.75</v>
+        <v>30.666666666666668</v>
       </c>
       <c r="K11" t="n">
-        <v>60.5</v>
+        <v>19.333333333333332</v>
       </c>
       <c r="L11" t="n">
-        <v>43.75</v>
+        <v>24.444444444444443</v>
       </c>
       <c r="M11" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.8888888888888888</v>
+        <v>1.8852459016393444</v>
       </c>
     </row>
     <row r="12">
@@ -699,40 +699,40 @@
         <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D12" t="n">
-        <v>180.0</v>
+        <v>430.0</v>
       </c>
       <c r="E12" t="n">
-        <v>45.0</v>
+        <v>53.75</v>
       </c>
       <c r="F12" t="n">
-        <v>1500.0</v>
+        <v>6400.0</v>
       </c>
       <c r="G12" t="n">
-        <v>375.0</v>
+        <v>800.0</v>
       </c>
       <c r="H12" t="n">
-        <v>1300.0</v>
+        <v>5250.0</v>
       </c>
       <c r="I12" t="n">
-        <v>325.0</v>
+        <v>656.25</v>
       </c>
       <c r="J12" t="n">
-        <v>35.25</v>
+        <v>47.625</v>
       </c>
       <c r="K12" t="n">
-        <v>13.25</v>
+        <v>41.25</v>
       </c>
       <c r="L12" t="n">
-        <v>26.0</v>
+        <v>36.25</v>
       </c>
       <c r="M12" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="N12" t="n">
-        <v>2.142857142857143</v>
+        <v>1.853448275862069</v>
       </c>
     </row>
     <row r="13">
@@ -743,40 +743,40 @@
         <v>42</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D13" t="n">
-        <v>140.0</v>
+        <v>300.0</v>
       </c>
       <c r="E13" t="n">
-        <v>35.0</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="F13" t="n">
-        <v>1000.0</v>
+        <v>2150.0</v>
       </c>
       <c r="G13" t="n">
-        <v>250.0</v>
+        <v>307.14285714285717</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>342.85714285714283</v>
       </c>
       <c r="J13" t="n">
-        <v>43.0</v>
+        <v>37.57142857142857</v>
       </c>
       <c r="K13" t="n">
-        <v>56.0</v>
+        <v>39.142857142857146</v>
       </c>
       <c r="L13" t="n">
-        <v>47.75</v>
+        <v>33.142857142857146</v>
       </c>
       <c r="M13" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.4736842105263157</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="14">
@@ -787,40 +787,40 @@
         <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D14" t="n">
-        <v>165.0</v>
+        <v>375.0</v>
       </c>
       <c r="E14" t="n">
-        <v>41.25</v>
+        <v>53.57142857142857</v>
       </c>
       <c r="F14" t="n">
-        <v>1200.0</v>
+        <v>6375.0</v>
       </c>
       <c r="G14" t="n">
-        <v>300.0</v>
+        <v>910.7142857142857</v>
       </c>
       <c r="H14" t="n">
-        <v>800.0</v>
+        <v>5200.0</v>
       </c>
       <c r="I14" t="n">
-        <v>200.0</v>
+        <v>742.8571428571429</v>
       </c>
       <c r="J14" t="n">
-        <v>39.75</v>
+        <v>50.0</v>
       </c>
       <c r="K14" t="n">
-        <v>48.25</v>
+        <v>23.142857142857142</v>
       </c>
       <c r="L14" t="n">
-        <v>37.75</v>
+        <v>27.0</v>
       </c>
       <c r="M14" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.8131868131868132</v>
+        <v>2.6041666666666665</v>
       </c>
     </row>
     <row r="15">
@@ -831,40 +831,40 @@
         <v>44</v>
       </c>
       <c r="C15" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D15" t="n">
-        <v>95.0</v>
+        <v>265.0</v>
       </c>
       <c r="E15" t="n">
-        <v>23.75</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="F15" t="n">
-        <v>650.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G15" t="n">
-        <v>162.5</v>
+        <v>300.0</v>
       </c>
       <c r="H15" t="n">
-        <v>200.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I15" t="n">
-        <v>50.0</v>
+        <v>250.0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.25</v>
+        <v>34.833333333333336</v>
       </c>
       <c r="K15" t="n">
-        <v>38.5</v>
+        <v>23.833333333333332</v>
       </c>
       <c r="L15" t="n">
-        <v>29.0</v>
+        <v>30.833333333333332</v>
       </c>
       <c r="M15" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.0106382978723405</v>
+        <v>2.0703125</v>
       </c>
     </row>
     <row r="16">
@@ -875,40 +875,40 @@
         <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D16" t="n">
-        <v>290.0</v>
+        <v>135.0</v>
       </c>
       <c r="E16" t="n">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
       <c r="F16" t="n">
-        <v>5325.0</v>
+        <v>850.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1331.25</v>
+        <v>141.66666666666666</v>
       </c>
       <c r="H16" t="n">
-        <v>4300.0</v>
+        <v>200.0</v>
       </c>
       <c r="I16" t="n">
-        <v>1075.0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5</v>
+        <v>31.833333333333332</v>
       </c>
       <c r="K16" t="n">
-        <v>35.75</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="L16" t="n">
-        <v>23.75</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="M16" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.258426966292135</v>
+        <v>1.0887096774193548</v>
       </c>
     </row>
     <row r="17">
@@ -919,40 +919,40 @@
         <v>46</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D17" t="n">
-        <v>115.0</v>
+        <v>280.0</v>
       </c>
       <c r="E17" t="n">
-        <v>38.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="F17" t="n">
-        <v>1100.0</v>
+        <v>3300.0</v>
       </c>
       <c r="G17" t="n">
-        <v>366.6666666666667</v>
+        <v>550.0</v>
       </c>
       <c r="H17" t="n">
-        <v>650.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I17" t="n">
-        <v>216.66666666666666</v>
+        <v>350.0</v>
       </c>
       <c r="J17" t="n">
-        <v>52.333333333333336</v>
+        <v>63.166666666666664</v>
       </c>
       <c r="K17" t="n">
-        <v>27.666666666666668</v>
+        <v>34.666666666666664</v>
       </c>
       <c r="L17" t="n">
-        <v>27.666666666666668</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="M17" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.4024390243902438</v>
+        <v>1.8300653594771241</v>
       </c>
     </row>
     <row r="18">
@@ -963,40 +963,40 @@
         <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D18" t="n">
-        <v>175.0</v>
+        <v>180.0</v>
       </c>
       <c r="E18" t="n">
-        <v>58.333333333333336</v>
+        <v>36.0</v>
       </c>
       <c r="F18" t="n">
-        <v>2650.0</v>
+        <v>1000.0</v>
       </c>
       <c r="G18" t="n">
-        <v>883.3333333333334</v>
+        <v>200.0</v>
       </c>
       <c r="H18" t="n">
-        <v>1700.0</v>
+        <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>566.6666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>50.666666666666664</v>
+        <v>34.4</v>
       </c>
       <c r="K18" t="n">
-        <v>43.333333333333336</v>
+        <v>55.2</v>
       </c>
       <c r="L18" t="n">
-        <v>37.333333333333336</v>
+        <v>48.6</v>
       </c>
       <c r="M18" t="n">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="N18" t="n">
-        <v>2.108433734939759</v>
+        <v>1.5126050420168067</v>
       </c>
     </row>
     <row r="19">
